--- a/docs/karabas-pro-revD-alpha2.xlsx
+++ b/docs/karabas-pro-revD-alpha2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="karabas-pro-revD" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'karabas-pro-revD'!$A$1:$D$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'karabas-pro-revD'!$A$1:$D$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -373,12 +373,6 @@
     <t xml:space="preserve">750</t>
   </si>
   <si>
-    <t xml:space="preserve">R61, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
     <t xml:space="preserve">SW1, SW2, </t>
   </si>
   <si>
@@ -487,7 +481,7 @@
     <t xml:space="preserve">U11, </t>
   </si>
   <si>
-    <t xml:space="preserve">TDA1543</t>
+    <t xml:space="preserve">TDA1543 (A)</t>
   </si>
   <si>
     <t xml:space="preserve">DIP-8_W7.62mm</t>
@@ -496,22 +490,25 @@
     <t xml:space="preserve">U12, </t>
   </si>
   <si>
-    <t xml:space="preserve">AMS1117-3.3</t>
+    <t xml:space="preserve">1117-3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1117-2.5</t>
   </si>
   <si>
     <t xml:space="preserve">SOT-223-3</t>
   </si>
   <si>
-    <t xml:space="preserve">U13, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMS1117-2.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">U14, </t>
   </si>
   <si>
-    <t xml:space="preserve">AMS1117-1.2</t>
+    <t xml:space="preserve">1117-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">U15, </t>
@@ -572,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -600,11 +597,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -695,8 +687,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -716,13 +708,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.49"/>
@@ -1202,7 +1194,7 @@
       <c r="C34" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1297,8 +1289,8 @@
       <c r="B41" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <v>300</v>
+      <c r="C41" s="8" t="n">
+        <v>330</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>92</v>
@@ -1360,169 +1352,169 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="B46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>120</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>126</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>150</v>
@@ -1539,147 +1531,133 @@
         <v>152</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="D62" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="7" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>165</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
